--- a/group_5_review_features.xlsx
+++ b/group_5_review_features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Project-350\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4330FBA8-7409-45FB-95A0-6800B98A1CF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC42C755-809B-43A2-92E8-A66194893429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3984" yWindow="2628" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study selection" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
   <si>
     <t>paperid</t>
   </si>
@@ -174,14 +174,6 @@
 here are compact objects - those that can be covered by simple bounding shapes. This allows inexpensive ground-truthing.</t>
   </si>
   <si>
-    <t>1.Algorithm parameters can be optimized for a particular
-set of metrics.                2.The performance of an algorithm for different kinds of
-data can be compared. 3.Quantitative comparison of different detection algorithms
-is possible.
-4.In the course of an algorithm’s development, any performance improvement can be measured.
-5.Tradeoffs between performance aspects can be determined.</t>
-  </si>
-  <si>
     <t>Several (seven) matrics to measure all the different aspects of performance.</t>
   </si>
   <si>
@@ -252,6 +244,116 @@
   pages={3367--3375},
   year={2015}
 }</t>
+  </si>
+  <si>
+    <t>obj008</t>
+  </si>
+  <si>
+    <t>@inproceedings{long2015fully,I9
+  title={Fully convolutional networks for semantic segmentation},
+  author={Long, Jonathan and Shelhamer, Evan and Darrell, Trevor},
+  booktitle={Proceedings of the IEEE conference on computer vision and pattern recognition},
+  pages={3431--3440},
+  year={2015}
+}</t>
+  </si>
+  <si>
+    <t>https://people.eecs.berkeley.edu/~jonlong/long_shelhamer_fcn.pdf</t>
+  </si>
+  <si>
+    <t>@inproceedings{ren2015faster,
+  title={Faster r-cnn: Towards real-time object detection with region proposal networks},
+  author={Ren, Shaoqing and He, Kaiming and Girshick, Ross and Sun, Jian},
+  booktitle={Advances in neural information processing systems},
+  pages={91--99},
+  year={2015}
+}</t>
+  </si>
+  <si>
+    <t>obj024</t>
+  </si>
+  <si>
+    <t>https://papers.nips.cc/paper/5638-faster-r-cnn-towards-real-time-object-detection-with-region-proposal-networks.pdf</t>
+  </si>
+  <si>
+    <t>Fully convolutional networks for semantic segmentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Their key insight is to build “fully convolutional” networks that take input of arbitrary size and produce correspondingly-sized output with efﬁcient inference and learning. They deﬁne and detail the space of fully convolutionalnetworks,explaintheirapplicationtospatiallydense predictiontasks, anddrawconnectionstopriormodels. </t>
+  </si>
+  <si>
+    <t>GoogLeNet, AlexNet, VGG net</t>
+  </si>
+  <si>
+    <t>PASCAL VOC, NYUDv2, SIFT</t>
+  </si>
+  <si>
+    <t>1. Algorithm parameters can be optimized for a particular
+set of metrics.                2.The performance of an algorithm for different kinds of
+data can be compared. 3. Quantitative comparison of different detection algorithms
+is possible.
+4. In the course of an algorithm’s development, any performance improvement can be measured.
+5.Tradeoffs between performance aspects can be determined.</t>
+  </si>
+  <si>
+    <t>They adapt contemporary classiﬁcation networks (AlexNet, the VGG net, and GoogLeNet) into fully convolutional networks and transfer their learned representations byﬁne-tuning to the segmentation task.</t>
+  </si>
+  <si>
+    <t>Faster r-cnn: Towards real-time object detection with region proposal networks</t>
+  </si>
+  <si>
+    <t>PASCAL VOC 2007, PASCAL VOC 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Region Proposal Network (RPN),  R-CNN</t>
+  </si>
+  <si>
+    <t>They introduce a Region Proposal Network (RPN) that shares full-image convolutional features with the detection network, thus enabling nearly cost-free region proposals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RPNs are trained end-to-end to generate highquality region proposals, which are used by Fast R-CNN for detection. With a simple alternating optimization, RPN and Fast R-CNN can be trained to share convolutional features.</t>
+  </si>
+  <si>
+    <t>obj028</t>
+  </si>
+  <si>
+    <t>obj026</t>
+  </si>
+  <si>
+    <t>obj036</t>
+  </si>
+  <si>
+    <t>Object Detection via Region-based Fully ConvolutionalNetworks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PASCAL VOC</t>
+  </si>
+  <si>
+    <t>They propose position-sensitive score maps to address a dilemma between translation-invariance in image classiﬁcation and translation-variance in object detection.</t>
+  </si>
+  <si>
+    <t>R-CNN,  Residual Networks (ResNets)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In contrast to previous region-based detectors such as Faster R-CNN that apply a costly per-region subnetwork hundreds of times, their region-based detector is fully convolutional with almost all computation shared on the entire image. Their method can thus naturally adopt fully convolutional image classiﬁer backbones, such as the latest Residual Networks (ResNets), for object detection. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fast YOLO,</t>
+  </si>
+  <si>
+    <t>You Only Look Once: Uniﬁed, Real-Time Object Detectio</t>
+  </si>
+  <si>
+    <t>Extremely fast, processes images in real-time at 45 frames per second.</t>
+  </si>
+  <si>
+    <t>Picasso, People-Art, PASCAL VOC 2007, PASCAL VOC 2012</t>
+  </si>
+  <si>
+    <t>Their uniﬁed architecture is extremely fast. Their base YOLO model processes images in real-time at 45 frames per second.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They reframe object detection as a single regression problem, straight from image pixels to bounding box coordinates and class probabilities. Using system, you only look once (YOLO) at an image to predict what objects are present and where they are. </t>
   </si>
 </sst>
 </file>
@@ -839,9 +941,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -916,10 +1018,10 @@
     </row>
     <row r="3" spans="1:30" ht="30" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="5">
         <v>2002</v>
@@ -931,7 +1033,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="30" customHeight="1">
@@ -951,15 +1053,15 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="30" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5">
         <v>2014</v>
@@ -971,7 +1073,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="30" customHeight="1">
@@ -1006,14 +1108,24 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:30" ht="30" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2015</v>
+      </c>
+      <c r="D8" s="5">
+        <v>11186</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="38"/>
+      <c r="H8" s="38" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9" spans="1:30" ht="30" customHeight="1">
       <c r="A9" s="7"/>
@@ -1026,14 +1138,22 @@
       <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:30" ht="30" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>63</v>
+      </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <v>11885</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="38"/>
+      <c r="H10" s="38" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="1:30" ht="30" customHeight="1">
       <c r="A11" s="7"/>
@@ -5171,9 +5291,11 @@
     <hyperlink ref="B6" r:id="rId2" xr:uid="{6E6B66B7-5731-4D1C-9AF9-61ECFE162BF6}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{4034E557-A9E3-4DAF-A21F-6139D59B6892}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{7FF76A51-942E-4084-8322-5507FD4F61DD}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{C0DC109F-DDE6-461C-9898-35E8FA5834C4}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{7B64C7C9-9756-4437-9E48-563EEEFC1665}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -5181,9 +5303,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5204,15 +5326,15 @@
     <row r="2" spans="2:10" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="B2" s="10" t="str">
         <f>CONCATENATE("Total: ",COUNTA(B5:B39))</f>
-        <v>Total: 4</v>
+        <v>Total: 9</v>
       </c>
       <c r="C2" s="11" t="str">
         <f>CONCATENATE("Completed: ",COUNTA(E5:E39))</f>
-        <v>Completed: 4</v>
+        <v>Completed: 8</v>
       </c>
       <c r="D2" s="11" t="str">
         <f>CONCATENATE("Rest :",COUNTA(B5:B39)-COUNTA(E5:E39))</f>
-        <v>Rest :0</v>
+        <v>Rest :1</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -5293,13 +5415,13 @@
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
       <c r="H5" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="28" t="s">
-        <v>45</v>
-      </c>
       <c r="J5" s="44" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="40.049999999999997" customHeight="1">
@@ -5327,27 +5449,27 @@
     </row>
     <row r="7" spans="2:10" ht="40.049999999999997" customHeight="1">
       <c r="B7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="D7" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>48</v>
-      </c>
       <c r="E7" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="40.049999999999997" customHeight="1">
@@ -5385,14 +5507,26 @@
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="2:10" ht="40.049999999999997" customHeight="1">
-      <c r="B10" s="29"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="B10" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="H10" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>67</v>
+      </c>
       <c r="J10" s="44"/>
     </row>
     <row r="11" spans="2:10" ht="40.049999999999997" customHeight="1">
@@ -5407,14 +5541,26 @@
       <c r="J11" s="44"/>
     </row>
     <row r="12" spans="2:10" ht="40.049999999999997" customHeight="1">
-      <c r="B12" s="29"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="B12" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="H12" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="J12" s="44"/>
     </row>
     <row r="13" spans="2:10" ht="40.049999999999997" customHeight="1">
@@ -5429,14 +5575,26 @@
       <c r="J13" s="44"/>
     </row>
     <row r="14" spans="2:10" ht="40.049999999999997" customHeight="1">
-      <c r="B14" s="29"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="B14" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>82</v>
+      </c>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="H14" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="J14" s="44"/>
     </row>
     <row r="15" spans="2:10" ht="40.049999999999997" customHeight="1">
@@ -5451,15 +5609,29 @@
       <c r="J15" s="44"/>
     </row>
     <row r="16" spans="2:10" ht="40.049999999999997" customHeight="1">
-      <c r="B16" s="29"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="B16" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>88</v>
+      </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="44"/>
+      <c r="H16" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="44" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="17" spans="2:10" ht="40.049999999999997" customHeight="1">
       <c r="B17" s="29"/>
@@ -5473,7 +5645,9 @@
       <c r="J17" s="44"/>
     </row>
     <row r="18" spans="2:10" ht="40.049999999999997" customHeight="1">
-      <c r="B18" s="29"/>
+      <c r="B18" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>

--- a/group_5_review_features.xlsx
+++ b/group_5_review_features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC42C755-809B-43A2-92E8-A66194893429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2EA638-30A4-4C91-8F55-8974EF6BFEA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="104">
   <si>
     <t>paperid</t>
   </si>
@@ -332,9 +332,6 @@
     <t>They propose position-sensitive score maps to address a dilemma between translation-invariance in image classiﬁcation and translation-variance in object detection.</t>
   </si>
   <si>
-    <t>R-CNN,  Residual Networks (ResNets)</t>
-  </si>
-  <si>
     <t xml:space="preserve">In contrast to previous region-based detectors such as Faster R-CNN that apply a costly per-region subnetwork hundreds of times, their region-based detector is fully convolutional with almost all computation shared on the entire image. Their method can thus naturally adopt fully convolutional image classiﬁer backbones, such as the latest Residual Networks (ResNets), for object detection. </t>
   </si>
   <si>
@@ -354,6 +351,54 @@
   </si>
   <si>
     <t xml:space="preserve">They reframe object detection as a single regression problem, straight from image pixels to bounding box coordinates and class probabilities. Using system, you only look once (YOLO) at an image to predict what objects are present and where they are. </t>
+  </si>
+  <si>
+    <t>OBJECT DETECTION USING DEEP NEURAL NETWORKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A full object mask is generated by providing the input image to a first deep neural network object detector that produces a full object mask for an object of a particular object type depicted in the input image. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A partial object mask is generated by providing the input image to a second deep neural network object detector that produces a partial object mask for a portion of the object of the particular object type depicted in the input image. </t>
+  </si>
+  <si>
+    <t>obj005</t>
+  </si>
+  <si>
+    <t>R-CNN,  Residual Networks (ResNets), Region Proposal Network(RPN)</t>
+  </si>
+  <si>
+    <t>Object Detection With Deep Learning: A Review</t>
+  </si>
+  <si>
+    <t>obj011</t>
+  </si>
+  <si>
+    <t>obj021</t>
+  </si>
+  <si>
+    <t>obj027</t>
+  </si>
+  <si>
+    <t>obj031</t>
+  </si>
+  <si>
+    <t>obj037</t>
+  </si>
+  <si>
+    <t>Performance Evaluation of Object Detection Algorithms for Video Surveillance</t>
+  </si>
+  <si>
+    <t>A General Framework for Object Detection</t>
+  </si>
+  <si>
+    <t>Combining efﬁcient object localization and image classiﬁcation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A REVIEW ON IMAGE SEGMENTATION TECHNIQUES </t>
+  </si>
+  <si>
+    <t>Real-Time Visual Concept Classiﬁcation</t>
   </si>
 </sst>
 </file>
@@ -5304,8 +5349,8 @@
   <dimension ref="B2:J1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5326,15 +5371,15 @@
     <row r="2" spans="2:10" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="B2" s="10" t="str">
         <f>CONCATENATE("Total: ",COUNTA(B5:B39))</f>
-        <v>Total: 9</v>
+        <v>Total: 15</v>
       </c>
       <c r="C2" s="11" t="str">
         <f>CONCATENATE("Completed: ",COUNTA(E5:E39))</f>
-        <v>Completed: 8</v>
+        <v>Completed: 9</v>
       </c>
       <c r="D2" s="11" t="str">
         <f>CONCATENATE("Rest :",COUNTA(B5:B39)-COUNTA(E5:E39))</f>
-        <v>Rest :1</v>
+        <v>Rest :6</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -5496,8 +5541,12 @@
       <c r="J8" s="44"/>
     </row>
     <row r="9" spans="2:10" ht="40.049999999999997" customHeight="1">
-      <c r="B9" s="29"/>
-      <c r="C9" s="28"/>
+      <c r="B9" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>93</v>
+      </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
@@ -5530,8 +5579,12 @@
       <c r="J10" s="44"/>
     </row>
     <row r="11" spans="2:10" ht="40.049999999999997" customHeight="1">
-      <c r="B11" s="29"/>
-      <c r="C11" s="28"/>
+      <c r="B11" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>99</v>
+      </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -5564,8 +5617,12 @@
       <c r="J12" s="44"/>
     </row>
     <row r="13" spans="2:10" ht="40.049999999999997" customHeight="1">
-      <c r="B13" s="29"/>
-      <c r="C13" s="28"/>
+      <c r="B13" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>100</v>
+      </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -5585,12 +5642,12 @@
         <v>80</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I14" s="28" t="s">
         <v>79</v>
@@ -5598,8 +5655,12 @@
       <c r="J14" s="44"/>
     </row>
     <row r="15" spans="2:10" ht="40.049999999999997" customHeight="1">
-      <c r="B15" s="29"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>101</v>
+      </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -5613,29 +5674,33 @@
         <v>76</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J16" s="44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="40.049999999999997" customHeight="1">
-      <c r="B17" s="29"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>102</v>
+      </c>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
@@ -5648,9 +5713,15 @@
       <c r="B18" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="C18" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>90</v>
+      </c>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -5658,8 +5729,12 @@
       <c r="J18" s="44"/>
     </row>
     <row r="19" spans="2:10" ht="40.049999999999997" customHeight="1">
-      <c r="B19" s="29"/>
-      <c r="C19" s="28"/>
+      <c r="B19" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>103</v>
+      </c>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>

--- a/group_5_review_features.xlsx
+++ b/group_5_review_features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2EA638-30A4-4C91-8F55-8974EF6BFEA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80051A7-1ED1-4098-8196-441DE7E38399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="118">
   <si>
     <t>paperid</t>
   </si>
@@ -399,6 +399,48 @@
   </si>
   <si>
     <t>Real-Time Visual Concept Classiﬁcation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They focus on typical generic object detection architectures along with some modiﬁcations and useful tricks to improve detection performance further</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNN, Faster R-CNN, YOLO </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PASCAL VOC 2007/2012,   Microsoft COCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As distinct speciﬁc detection tasks exhibit different characteristics, they brieﬂy survey several speciﬁc tasks, including salient object detection, face detection, and pedestrian detection. Experimental analyses are also provided to compare various methods and draw some meaningful conclusions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They proposed novel methods to evaluate the performance of object detection algorithms in video sequences. This procedure allows us to highlight characteristics (e.g., region splitting or merging) which are speciﬁc of the method being used.</t>
+  </si>
+  <si>
+    <t>Pixel-based methods, Template based methods and Object-based methods.</t>
+  </si>
+  <si>
+    <t>Two approaches have been recently considered to characterize the performance of video segmentation algorithms: pixel-based methods, template based methods and object-based methods.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lehigh Omnidirectional Tracking System (LOTS), (MGM—multiple Gaussian model),  basic background subtraction (BBS) , SGM—single Gaussian model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This paper presents a novel framework for object detection in cluttered scenes, based on the use of an overcomplete dictionary of basis functions and com- bined with statistical learning techniques. </t>
+  </si>
+  <si>
+    <t>obj032</t>
+  </si>
+  <si>
+    <t>obj044</t>
+  </si>
+  <si>
+    <t>obj041</t>
+  </si>
+  <si>
+    <t>obj050</t>
+  </si>
+  <si>
+    <t>obj046</t>
   </si>
 </sst>
 </file>
@@ -5348,9 +5390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5371,15 +5413,15 @@
     <row r="2" spans="2:10" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="B2" s="10" t="str">
         <f>CONCATENATE("Total: ",COUNTA(B5:B39))</f>
-        <v>Total: 15</v>
+        <v>Total: 20</v>
       </c>
       <c r="C2" s="11" t="str">
         <f>CONCATENATE("Completed: ",COUNTA(E5:E39))</f>
-        <v>Completed: 9</v>
+        <v>Completed: 11</v>
       </c>
       <c r="D2" s="11" t="str">
         <f>CONCATENATE("Rest :",COUNTA(B5:B39)-COUNTA(E5:E39))</f>
-        <v>Rest :6</v>
+        <v>Rest :9</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -5547,12 +5589,20 @@
       <c r="C9" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="D9" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>107</v>
+      </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="H9" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>106</v>
+      </c>
       <c r="J9" s="44"/>
     </row>
     <row r="10" spans="2:10" ht="40.049999999999997" customHeight="1">
@@ -5585,12 +5635,20 @@
       <c r="C11" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="D11" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>110</v>
+      </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="H11" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>111</v>
+      </c>
       <c r="J11" s="44"/>
     </row>
     <row r="12" spans="2:10" ht="40.049999999999997" customHeight="1">
@@ -5623,7 +5681,9 @@
       <c r="C13" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="28"/>
+      <c r="D13" s="28" t="s">
+        <v>112</v>
+      </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
@@ -5744,7 +5804,9 @@
       <c r="J19" s="44"/>
     </row>
     <row r="20" spans="2:10" ht="40.049999999999997" customHeight="1">
-      <c r="B20" s="29"/>
+      <c r="B20" s="29" t="s">
+        <v>113</v>
+      </c>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
@@ -5755,7 +5817,9 @@
       <c r="J20" s="44"/>
     </row>
     <row r="21" spans="2:10" ht="40.049999999999997" customHeight="1">
-      <c r="B21" s="29"/>
+      <c r="B21" s="29" t="s">
+        <v>115</v>
+      </c>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
@@ -5766,7 +5830,9 @@
       <c r="J21" s="44"/>
     </row>
     <row r="22" spans="2:10" ht="40.049999999999997" customHeight="1">
-      <c r="B22" s="29"/>
+      <c r="B22" s="29" t="s">
+        <v>114</v>
+      </c>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
@@ -5777,7 +5843,9 @@
       <c r="J22" s="44"/>
     </row>
     <row r="23" spans="2:10" ht="40.049999999999997" customHeight="1">
-      <c r="B23" s="29"/>
+      <c r="B23" s="29" t="s">
+        <v>116</v>
+      </c>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
@@ -5788,7 +5856,9 @@
       <c r="J23" s="44"/>
     </row>
     <row r="24" spans="2:10" ht="40.049999999999997" customHeight="1">
-      <c r="B24" s="29"/>
+      <c r="B24" s="29" t="s">
+        <v>117</v>
+      </c>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>

--- a/group_5_review_features.xlsx
+++ b/group_5_review_features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B556172-65B8-4DA6-8B76-EB7A1883956B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB657BC9-FE76-43ED-8E20-D481AE1F2C7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5418,7 +5418,7 @@
   <dimension ref="B2:I1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>

--- a/group_5_review_features.xlsx
+++ b/group_5_review_features.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE24798-3BD3-453F-A56E-03945BF493C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F16410-9A9D-43E5-8046-746C2364EB7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study selection" sheetId="1" r:id="rId1"/>
@@ -4329,8 +4329,8 @@
   <dimension ref="B2:I1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="15.75" customHeight="1"/>

--- a/group_5_review_features.xlsx
+++ b/group_5_review_features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE24798-3BD3-453F-A56E-03945BF493C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FD9CEC-40B3-4F57-83E5-4EEADE0DB58D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="149">
   <si>
     <t>paperid</t>
   </si>
@@ -456,6 +456,84 @@
   </si>
   <si>
     <t>4-methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This paper presented an evaluation of fast Bag-of-Words components to accelerate visual concept classiﬁcation. We presented results on the Pascal dataset and validated them on the MediaMill Challenge and 15 Natural Scenes databases. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Descriptor Extraction,  Visual Word, MediaMill Challenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bag-of-Words, Visual Word Assignment, Support vector machines, Graphics Processing Unit, Descriptor Extraction, Visual Word Assignment  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We use the Bag-ofWords algorithm that in the 2008 benchmarks of TRECVID and PASCAL lead to the best performance scores. We divide the evaluation in three steps: 1) Descriptor Extraction, where we evaluate SIFT, SURF, DAISY, and Semantic Textons. 2) Visual Word Assignment, where we compare a k-means visual vocabulary with a Random Forest and evaluate subsampling, dimension reduction with PCA, and division strategies of the Spatial Pyramid. 3) Classiﬁcation, where we evaluate the , RBF, and Fast Histogram Intersection kernel for the SVM. Apart from the evaluation, we acceleratethe calculation ofdensely sampled SIFTandSURF, accelerate nearest neighbor assignment, and improve accuracy of the HistogramIntersectionkernel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KITTI, Caltech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have proposed a uniﬁed deep convolutional neural network, denoted the MSCNN, for fast multi-scale object detection. The detection is preformed at various intermediate network layers, whose receptive ﬁelds match various object scales. </t>
+  </si>
+  <si>
+    <t>This work proposes a uniﬁed multi-scale deep CNN, denoted the multi-scale CNN (MS-CNN), for fast object detection. Similar to [9], this network consists of two sub-networks: an object proposal network and an accurate detection network.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time is more robust to pose variations leading to state of the art results on ETHZ shape dataset and competitive results on the UIUC car and INRIA horse dataset. </t>
+  </si>
+  <si>
+    <t>Multi-Scale CNN (MS-CNN)</t>
+  </si>
+  <si>
+    <t>We present a discriminative Hough transform based object detector where each local part casts a weighted vote for the possible locations of the object center</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We delve into the detection systems and provide insights about the region-wise classiﬁers. We discover that deep convolutional classiﬁers are just as important as deep convolutional feature extractors.</t>
+  </si>
+  <si>
+    <t>Based on the observations from the NoC perspective, we present a way of using Faster R-CNN with ResNets, which achieves nontrivial results on challenging datasets including MS COCO.</t>
+  </si>
+  <si>
+    <t>PASCAL VOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Region Proposal Network (RPN), Fast R-CNN, NoC</t>
+  </si>
+  <si>
+    <t>M2HT, INRIA, ETHZ</t>
+  </si>
+  <si>
+    <t>Probabilistic Hough Transform, Max-Margin Hough Transform, Discriminative Training</t>
+  </si>
+  <si>
+    <t>On various datasets we show that the discriminative training improves the Hough detector. Combined with a veriﬁcation step using a SVM based classiﬁer, our approach achieves a detection rate of 91.9% at 0.3 false positives per image on the ETHZ shape dataset, a signiﬁcant improvement over the state of the art, while running the veriﬁcation step on at least an order of magnitude fewer windows than in a sliding window approach.</t>
+  </si>
+  <si>
+    <t>PASCAL VOC2007, PASCAL VOC2012</t>
+  </si>
+  <si>
+    <t>We proposed a rich CNN-based representation for object detection that relies on two key factors: (i) the diversiﬁcation of the discriminative appearance factors that it captures by steering its focus on different regions of the object, and (ii) the encoding of semantic segmentation-aware features. By using it in the context of a CNN-based localization reﬁnement scheme, we showed that it achieves excellent results that surpass the state-of-the art by a signiﬁcant margin.</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>INRIA, ETHZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We present an object class detection approach which fully integrates the complementary strengths offered by shape matchers. Like an object detector, it can learn class models directly from images, and localize novel instances in the presence of intra-class variations, clutter, and scale changes. Like a shape matcher, it ﬁnds the accurate boundaries of the objects, rather than just their bounding-boxes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) A novel technique for learning a shape model of an object class given images of example instances; 2) the combination of Hough-style voting with a non-rigid point matching algorithm to localize the modelin cluttered images. </t>
+  </si>
+  <si>
+    <t>Hough voting, Shape Matching by TPS-RPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We exploit some properties of our recognition module by integrating it on an iterative localization mechanism that alternates between scoring a box proposal and reﬁning its location with a deep CNN regression model. </t>
+  </si>
+  <si>
+    <t>We demonstrate the capabilities of the technique in two domains whose inherent information content dif- fers significantly. The first system is face detection and the second is the domain of people</t>
   </si>
 </sst>
 </file>
@@ -599,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -707,6 +785,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -991,8 +1072,8 @@
   <dimension ref="A1:AC1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1129,7 +1210,9 @@
       </c>
     </row>
     <row r="7" spans="1:29" ht="30" customHeight="1">
-      <c r="A7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1156,7 +1239,9 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="30" customHeight="1">
-      <c r="A9" s="7"/>
+      <c r="A9" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1180,7 +1265,9 @@
       </c>
     </row>
     <row r="11" spans="1:29" ht="30" customHeight="1">
-      <c r="A11" s="7"/>
+      <c r="A11" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1189,7 +1276,9 @@
       <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:29" ht="30" customHeight="1">
-      <c r="A12" s="7"/>
+      <c r="A12" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1198,7 +1287,9 @@
       <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:29" ht="30" customHeight="1">
-      <c r="A13" s="7"/>
+      <c r="A13" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1207,7 +1298,9 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:29" ht="30" customHeight="1">
-      <c r="A14" s="7"/>
+      <c r="A14" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1216,7 +1309,9 @@
       <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:29" ht="30" customHeight="1">
-      <c r="A15" s="7"/>
+      <c r="A15" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1225,7 +1320,9 @@
       <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:29" ht="30" customHeight="1">
-      <c r="A16" s="7"/>
+      <c r="A16" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1234,7 +1331,9 @@
       <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1">
-      <c r="A17" s="7"/>
+      <c r="A17" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1243,7 +1342,9 @@
       <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1">
-      <c r="A18" s="7"/>
+      <c r="A18" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1252,7 +1353,9 @@
       <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1">
-      <c r="A19" s="7"/>
+      <c r="A19" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1261,7 +1364,9 @@
       <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1">
-      <c r="A20" s="7"/>
+      <c r="A20" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1270,7 +1375,9 @@
       <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1">
-      <c r="A21" s="7"/>
+      <c r="A21" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1279,7 +1386,9 @@
       <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1">
-      <c r="A22" s="7"/>
+      <c r="A22" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -4329,8 +4438,8 @@
   <dimension ref="B2:I1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4354,11 +4463,11 @@
       </c>
       <c r="C2" s="11" t="str">
         <f>CONCATENATE("Completed: ",COUNTA(E5:E39))</f>
-        <v>Completed: 13</v>
+        <v>Completed: 20</v>
       </c>
       <c r="D2" s="11" t="str">
         <f>CONCATENATE("Rest :",COUNTA(B5:B39)-COUNTA(E5:E39))</f>
-        <v>Rest :7</v>
+        <v>Rest :0</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -4606,7 +4715,9 @@
       <c r="D13" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="27"/>
+      <c r="E13" s="27" t="s">
+        <v>148</v>
+      </c>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
@@ -4729,11 +4840,19 @@
       <c r="C19" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+      <c r="D19" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>126</v>
+      </c>
       <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
+      <c r="G19" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>124</v>
+      </c>
       <c r="I19" s="36"/>
     </row>
     <row r="20" spans="2:9" ht="40.049999999999997" customHeight="1">
@@ -4743,11 +4862,19 @@
       <c r="C20" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+      <c r="D20" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>129</v>
+      </c>
       <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
+      <c r="G20" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>127</v>
+      </c>
       <c r="I20" s="36"/>
     </row>
     <row r="21" spans="2:9" ht="40.049999999999997" customHeight="1">
@@ -4757,12 +4884,22 @@
       <c r="C21" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="D21" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>139</v>
+      </c>
       <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="36"/>
+      <c r="G21" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="22" spans="2:9" ht="40.049999999999997" customHeight="1">
       <c r="B22" s="28" t="s">
@@ -4771,11 +4908,19 @@
       <c r="C22" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
+      <c r="D22" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>134</v>
+      </c>
       <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
+      <c r="G22" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>135</v>
+      </c>
       <c r="I22" s="36"/>
     </row>
     <row r="23" spans="2:9" ht="40.049999999999997" customHeight="1">
@@ -4785,11 +4930,19 @@
       <c r="C23" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="D23" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
+      <c r="G23" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>140</v>
+      </c>
       <c r="I23" s="36"/>
     </row>
     <row r="24" spans="2:9" ht="40.049999999999997" customHeight="1">
@@ -4799,11 +4952,19 @@
       <c r="C24" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="D24" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
+      <c r="G24" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>143</v>
+      </c>
       <c r="I24" s="36"/>
     </row>
     <row r="25" spans="2:9" ht="40.049999999999997" customHeight="1">

--- a/group_5_review_features.xlsx
+++ b/group_5_review_features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FD9CEC-40B3-4F57-83E5-4EEADE0DB58D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C05A74D-A2B0-4A7F-8A9B-4F2C07567508}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/group_5_review_features.xlsx
+++ b/group_5_review_features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170D8CD3-2F21-4EAB-9E9F-608E82C2CF0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB50E257-0455-40D8-9FF6-343EDC0CA839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4438,7 +4438,7 @@
   <dimension ref="B2:I1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>

--- a/group_5_review_features.xlsx
+++ b/group_5_review_features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFEE\Documents\GitHub\Project-350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE13318-9FFA-4267-969C-86DFF5F79C0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD79F9A9-E456-4BB5-A6CF-EA41E7726422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="148">
   <si>
     <t>paperid</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>Performance Evaluation of Object Detection Algorithms</t>
-  </si>
-  <si>
-    <t>obj0013</t>
   </si>
   <si>
     <t>Several metrics which can be
@@ -1130,7 +1127,7 @@
     </row>
     <row r="3" spans="1:29" ht="30" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="4">
         <v>2002</v>
@@ -1142,7 +1139,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="30" customHeight="1">
@@ -1159,12 +1156,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="30" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="4">
         <v>2014</v>
@@ -1176,7 +1173,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="30" customHeight="1">
@@ -1198,7 +1195,7 @@
     </row>
     <row r="7" spans="1:29" ht="30" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="4">
         <v>2015</v>
@@ -1210,12 +1207,12 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="30" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4">
@@ -1225,7 +1222,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="30" customHeight="1">
@@ -4375,11 +4372,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:I1001"/>
+  <dimension ref="B1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4396,98 +4393,120 @@
     <col min="10" max="16384" width="23.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="9" t="str">
-        <f>CONCATENATE("Total: ",COUNTA(B5:B39))</f>
+    <row r="1" spans="2:9" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B1" s="9" t="str">
+        <f>CONCATENATE("Total: ",COUNTA(B4:B38))</f>
         <v>Total: 20</v>
       </c>
-      <c r="C2" s="10" t="str">
-        <f>CONCATENATE("Completed: ",COUNTA(E5:E39))</f>
+      <c r="C1" s="10" t="str">
+        <f>CONCATENATE("Completed: ",COUNTA(E4:E38))</f>
         <v>Completed: 20</v>
       </c>
-      <c r="D2" s="10" t="str">
-        <f>CONCATENATE("Rest :",COUNTA(B5:B39)-COUNTA(E5:E39))</f>
+      <c r="D1" s="10" t="str">
+        <f>CONCATENATE("Rest :",COUNTA(B4:B38)-COUNTA(E4:E38))</f>
         <v>Rest :0</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="30"/>
-    </row>
-    <row r="3" spans="2:9" s="8" customFormat="1" ht="52.8">
-      <c r="B3" s="12"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="2:9" s="8" customFormat="1" ht="52.8">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" s="8" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B3" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="C3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="21" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="40.049999999999997" customHeight="1">
+      <c r="B4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="40.049999999999997" customHeight="1">
       <c r="B5" s="23" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>57</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="2:9" ht="40.049999999999997" customHeight="1">
       <c r="B6" s="8" t="s">
@@ -4512,92 +4531,92 @@
       <c r="I6" s="31"/>
     </row>
     <row r="7" spans="2:9" ht="40.049999999999997" customHeight="1">
-      <c r="B7" s="8" t="s">
-        <v>38</v>
+      <c r="B7" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>42</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="2:9" ht="40.049999999999997" customHeight="1">
       <c r="B8" s="23" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="31"/>
+        <v>36</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="2:9" ht="40.049999999999997" customHeight="1">
       <c r="B9" s="23" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" ht="40.049999999999997" customHeight="1">
       <c r="B10" s="23" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="I10" s="31"/>
     </row>
@@ -4609,164 +4628,164 @@
         <v>88</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="F11" s="22"/>
-      <c r="G11" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>100</v>
-      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="31"/>
     </row>
     <row r="12" spans="2:9" ht="40.049999999999997" customHeight="1">
       <c r="B12" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" s="31"/>
     </row>
     <row r="13" spans="2:9" ht="40.049999999999997" customHeight="1">
       <c r="B13" s="23" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="G13" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="I13" s="31"/>
     </row>
     <row r="14" spans="2:9" ht="40.049999999999997" customHeight="1">
       <c r="B14" s="23" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="31"/>
+        <v>112</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="15" spans="2:9" ht="40.049999999999997" customHeight="1">
       <c r="B15" s="23" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="40.049999999999997" customHeight="1">
       <c r="B16" s="23" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>74</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="H16" s="22"/>
       <c r="I16" s="31" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="40.049999999999997" customHeight="1">
       <c r="B17" s="23" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="31" t="s">
-        <v>119</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="2:9" ht="40.049999999999997" customHeight="1">
       <c r="B18" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="E18" s="22" t="s">
         <v>78</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>79</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
@@ -4775,51 +4794,53 @@
     </row>
     <row r="19" spans="2:9" ht="40.049999999999997" customHeight="1">
       <c r="B19" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I19" s="31"/>
     </row>
     <row r="20" spans="2:9" ht="40.049999999999997" customHeight="1">
       <c r="B20" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>107</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20" s="31"/>
+        <v>137</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="21" spans="2:9" ht="40.049999999999997" customHeight="1">
       <c r="B21" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>108</v>
@@ -4828,83 +4849,69 @@
         <v>132</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>130</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" spans="2:9" ht="40.049999999999997" customHeight="1">
       <c r="B22" s="23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I22" s="31"/>
     </row>
     <row r="23" spans="2:9" ht="40.049999999999997" customHeight="1">
       <c r="B23" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="H23" s="22" t="s">
-        <v>140</v>
-      </c>
       <c r="I23" s="31"/>
     </row>
     <row r="24" spans="2:9" ht="40.049999999999997" customHeight="1">
-      <c r="B24" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>145</v>
-      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>143</v>
-      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="31"/>
     </row>
     <row r="25" spans="2:9" ht="40.049999999999997" customHeight="1">
@@ -5048,7 +5055,7 @@
       <c r="I38" s="31"/>
     </row>
     <row r="39" spans="2:9" ht="40.049999999999997" customHeight="1">
-      <c r="B39" s="23"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -5088,7 +5095,7 @@
       <c r="I42" s="31"/>
     </row>
     <row r="43" spans="2:9" ht="40.049999999999997" customHeight="1">
-      <c r="B43" s="22"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -5167,7 +5174,7 @@
       <c r="H50" s="22"/>
       <c r="I50" s="31"/>
     </row>
-    <row r="51" spans="2:9" ht="40.049999999999997" customHeight="1">
+    <row r="51" spans="2:9" ht="13.2">
       <c r="B51" s="29"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
@@ -14667,16 +14674,6 @@
       <c r="H1000" s="22"/>
       <c r="I1000" s="31"/>
     </row>
-    <row r="1001" spans="2:9" ht="13.2">
-      <c r="B1001" s="29"/>
-      <c r="C1001" s="22"/>
-      <c r="D1001" s="22"/>
-      <c r="E1001" s="22"/>
-      <c r="F1001" s="22"/>
-      <c r="G1001" s="22"/>
-      <c r="H1001" s="22"/>
-      <c r="I1001" s="31"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
